--- a/NATURAL-HOST/Asotheque.xlsx
+++ b/NATURAL-HOST/Asotheque.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\ASOTHEQUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C3E8A-7029-4E12-A44B-24214B734B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A9E83-6BC1-4936-9CDC-1C465E7D62A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="333">
   <si>
     <t>Titre_1</t>
   </si>
@@ -475,27 +475,6 @@
   </si>
   <si>
     <t>Référentiel Habitats marins</t>
-  </si>
-  <si>
-    <t>NRL</t>
-  </si>
-  <si>
-    <t>http://nortekmed.dyndns.org/acoustiqueNRL2/</t>
-  </si>
-  <si>
-    <t>Données CES6 Acoustique Direct</t>
-  </si>
-  <si>
-    <t>https://biotope34.sharepoint.com/sites/Nouvelle_Route_du_littoral_suivis_et_controle_environnementaux</t>
-  </si>
-  <si>
-    <t>SharePoint CES8</t>
-  </si>
-  <si>
-    <t>https://www.devisubox.com/dv/dv.php5?pgl=Project/interface&amp;sRef=1SMF2SJL</t>
-  </si>
-  <si>
-    <t>Webcam NRL</t>
   </si>
   <si>
     <t>SIG</t>
@@ -1030,6 +1009,24 @@
   </si>
   <si>
     <t>Site Guy Bouxin</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/</t>
+  </si>
+  <si>
+    <t>Chat GPT</t>
+  </si>
+  <si>
+    <t>https://you.com/</t>
+  </si>
+  <si>
+    <t>You</t>
   </si>
 </sst>
 </file>
@@ -1397,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1894,19 +1891,19 @@
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -1914,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
@@ -1931,16 +1928,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -1981,6 +1978,9 @@
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>87</v>
       </c>
@@ -1991,6 +1991,9 @@
     <row r="36" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>89</v>
@@ -2402,13 +2405,13 @@
         <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2416,13 +2419,16 @@
         <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2430,168 +2436,174 @@
         <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>194</v>
@@ -2602,322 +2614,322 @@
     </row>
     <row r="75" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>165</v>
+        <v>207</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>239</v>
@@ -2928,33 +2940,33 @@
     </row>
     <row r="94" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>244</v>
@@ -2962,47 +2974,47 @@
     </row>
     <row r="96" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>250</v>
@@ -3013,13 +3025,13 @@
     </row>
     <row r="99" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>252</v>
@@ -3030,13 +3042,13 @@
     </row>
     <row r="100" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>254</v>
@@ -3047,47 +3059,50 @@
     </row>
     <row r="101" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>261</v>
@@ -3098,13 +3113,13 @@
     </row>
     <row r="104" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>263</v>
@@ -3115,13 +3130,13 @@
     </row>
     <row r="105" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>265</v>
@@ -3129,19 +3144,16 @@
       <c r="F105" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="106" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>268</v>
@@ -3152,13 +3164,13 @@
     </row>
     <row r="107" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>270</v>
@@ -3169,13 +3181,13 @@
     </row>
     <row r="108" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>272</v>
@@ -3186,256 +3198,256 @@
     </row>
     <row r="109" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>281</v>
+        <v>328</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>296</v>
+        <v>7</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>310</v>
+        <v>35</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3446,13 +3458,13 @@
         <v>35</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3460,16 +3472,16 @@
         <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3477,16 +3489,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>317</v>
+        <v>42</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3494,36 +3509,16 @@
         <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3568,69 +3563,68 @@
     <hyperlink ref="E56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="E57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="E58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E62" r:id="rId44" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E75" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E83" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E84" r:id="rId65" location="/home" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E85" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E96" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E99" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E100" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E102" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E104" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E105" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E106" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E108" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E109" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E110" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E111" r:id="rId83" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E112" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E113" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E114" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E115" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E116" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E117" r:id="rId89" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E118" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E119" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E120" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E121" r:id="rId93" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E122" r:id="rId94" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E123" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E124" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E125" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E30" r:id="rId102" xr:uid="{05973226-353D-4785-A174-4AD2FD485BB7}"/>
-    <hyperlink ref="E32" r:id="rId103" xr:uid="{4DBD159A-C3A5-4A84-8626-C03E0BF680C4}"/>
+    <hyperlink ref="E59" r:id="rId41" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E73" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E74" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E75" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E81" r:id="rId62" location="/home" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E90" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E96" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E97" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E99" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E101" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E102" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E103" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E105" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E106" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E107" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E108" r:id="rId80" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E109" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E110" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E113" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E114" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E115" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E116" r:id="rId86" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E117" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E118" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E119" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E120" r:id="rId90" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E121" r:id="rId91" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E122" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E126" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E127" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E128" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E30" r:id="rId99" xr:uid="{05973226-353D-4785-A174-4AD2FD485BB7}"/>
+    <hyperlink ref="E32" r:id="rId100" xr:uid="{4DBD159A-C3A5-4A84-8626-C03E0BF680C4}"/>
+    <hyperlink ref="E111" r:id="rId101" xr:uid="{130CB945-BE0D-422F-B8C7-9D8E1D1AC15E}"/>
+    <hyperlink ref="E112" r:id="rId102" xr:uid="{D1B52DD1-8E74-4EB1-B4E1-54A76E83536B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
